--- a/S32K3/S32K3xx_DCF_clients.xlsx
+++ b/S32K3/S32K3xx_DCF_clients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf39440\Documents\S32K3xx_RM\Rev8_DraftB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf93503\Documents\S32K3\iomux\April2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6678C66-8FDA-41FA-B5F4-B954B8F3718B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F943393-235C-4A8D-8EAE-9603CB6604B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="24" r:id="rId1"/>
@@ -61,15 +61,6 @@
   </si>
   <si>
     <t># of DCF records</t>
-  </si>
-  <si>
-    <t>Reset value of DCF client S32K344</t>
-  </si>
-  <si>
-    <t>Reset value of DCF client S32K358</t>
-  </si>
-  <si>
-    <t>Reset value of DCF client S32K342</t>
   </si>
   <si>
     <t>Reset value of DCF client S32K312</t>
@@ -1324,6 +1315,15 @@
   </si>
   <si>
     <t>S32K3xx_DCF_clients</t>
+  </si>
+  <si>
+    <t>Reset value of DCF client S32K342/S32K322/S32K341</t>
+  </si>
+  <si>
+    <t>Reset value of DCF client S32K328/S32K338/S32K348/S32K358</t>
+  </si>
+  <si>
+    <t>Reset value of DCF client S32K314/S32K324/S32K344</t>
   </si>
 </sst>
 </file>
@@ -2180,6 +2180,22 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2192,40 +2208,24 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Excel Built-in Heading 1" xfId="19" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
@@ -3698,11 +3698,11 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.6">
-      <c r="A1" s="134" t="s">
-        <v>206</v>
+    <row r="1" spans="1:1" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="119" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3718,44 +3718,44 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="114" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="115" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.5546875" style="116" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="116" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.44140625" style="117" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="81"/>
+    <col min="1" max="1" width="21.5703125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="115" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" style="116" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="95.42578125" style="117" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="74" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="74" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>171</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>174</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="75" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="77"/>
@@ -3764,7 +3764,7 @@
       <c r="F2" s="79"/>
       <c r="G2" s="80"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="82">
         <v>0</v>
       </c>
@@ -3779,16 +3779,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G3" s="87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="82" t="str">
         <f>DEC2HEX(HEX2DEC(B3)+1,8)</f>
         <v>00000010</v>
@@ -3801,19 +3801,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E4" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="86" t="s">
-        <v>180</v>
-      </c>
       <c r="G4" s="87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="83" t="str">
         <f t="shared" ref="A5:A8" si="1">DEC2HEX(HEX2DEC(B4)+1,8)</f>
         <v>00000020</v>
@@ -3826,19 +3826,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F5" s="86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A6" s="83" t="str">
         <f t="shared" si="1"/>
         <v>00000030</v>
@@ -3851,19 +3851,19 @@
         <v>16</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="83" t="str">
         <f t="shared" si="1"/>
         <v>00000040</v>
@@ -3879,16 +3879,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G7" s="87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="83" t="str">
         <f t="shared" si="1"/>
         <v>00000048</v>
@@ -3901,19 +3901,19 @@
         <v>56</v>
       </c>
       <c r="D8" s="88" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(B8)+1,8)</f>
         <v>00000080</v>
@@ -3926,19 +3926,19 @@
         <v>32</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G9" s="87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="str">
         <f>DEC2HEX(HEX2DEC(B9)+1,8)</f>
         <v>000000A0</v>
@@ -3954,16 +3954,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F10" s="79" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G10" s="87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="str">
         <f t="shared" ref="A11:A13" si="2">DEC2HEX(HEX2DEC(B10)+1,8)</f>
         <v>00000100</v>
@@ -3976,19 +3976,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E11" s="93" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F11" s="94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="91" t="str">
         <f t="shared" si="2"/>
         <v>00000104</v>
@@ -4004,16 +4004,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F12" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="G12" s="87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="12.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="83" t="str">
         <f t="shared" si="2"/>
         <v>00000180</v>
@@ -4029,16 +4029,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F13" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="96" t="str">
         <f>DEC2HEX(HEX2DEC(B13)+1,8)</f>
         <v>00000200</v>
@@ -4051,19 +4051,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="97" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="12.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="96" t="str">
         <f t="shared" ref="A15:A18" si="3">DEC2HEX(HEX2DEC(B14)+1,8)</f>
         <v>00000208</v>
@@ -4076,19 +4076,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E15" s="97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F15" s="86" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G15" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="96" t="str">
         <f t="shared" si="3"/>
         <v>00000210</v>
@@ -4104,16 +4104,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F16" s="86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="96" t="str">
         <f>DEC2HEX(HEX2DEC(B16)+1,8)</f>
         <v>00000370</v>
@@ -4126,19 +4126,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E17" s="97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F17" s="86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="99" t="str">
         <f t="shared" si="3"/>
         <v>00000380</v>
@@ -4154,16 +4154,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F18" s="86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="101" t="str">
         <f>DEC2HEX(HEX2DEC(B18)+1,8)</f>
         <v>00000680</v>
@@ -4179,16 +4179,16 @@
         <v>1</v>
       </c>
       <c r="E19" s="102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F19" s="86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="83" t="str">
         <f>DEC2HEX(HEX2DEC(B19)+1,8)</f>
         <v>00000700</v>
@@ -4201,17 +4201,17 @@
         <v>8</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F20" s="79"/>
       <c r="G20" s="103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="83" t="str">
         <f t="shared" ref="A21:A22" si="5">DEC2HEX(HEX2DEC(B20)+1,8)</f>
         <v>00000708</v>
@@ -4224,17 +4224,17 @@
         <v>5368</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F21" s="79"/>
       <c r="G21" s="103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="83" t="str">
         <f t="shared" si="5"/>
         <v>00001C00</v>
@@ -4250,16 +4250,16 @@
         <v>1</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F22" s="86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G22" s="103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="81"/>
       <c r="C23" s="106"/>
       <c r="D23" s="107"/>
@@ -4267,7 +4267,7 @@
       <c r="F23" s="108"/>
       <c r="G23" s="74"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="81"/>
       <c r="C24" s="106"/>
       <c r="D24" s="107"/>
@@ -4275,67 +4275,67 @@
       <c r="F24" s="108"/>
       <c r="G24" s="74"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="81"/>
       <c r="C25" s="109"/>
       <c r="D25" s="110" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E25" s="107"/>
       <c r="F25" s="108"/>
       <c r="G25" s="74"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="81"/>
       <c r="C26" s="104"/>
       <c r="D26" s="110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E26" s="107"/>
       <c r="F26" s="108"/>
       <c r="G26" s="74"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="81"/>
       <c r="C27" s="99"/>
       <c r="D27" s="110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E27" s="107"/>
       <c r="F27" s="108"/>
       <c r="G27" s="74"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="81"/>
       <c r="C28" s="96"/>
       <c r="D28" s="110" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E28" s="107"/>
       <c r="F28" s="108"/>
       <c r="G28" s="74"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="81"/>
       <c r="C29" s="111"/>
       <c r="D29" s="112" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E29" s="107"/>
       <c r="F29" s="108"/>
       <c r="G29" s="74"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="81"/>
       <c r="C30" s="113"/>
       <c r="D30" s="112" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E30" s="107"/>
       <c r="F30" s="108"/>
       <c r="G30" s="74"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="81"/>
       <c r="C31" s="106"/>
       <c r="D31" s="107"/>
@@ -4343,7 +4343,7 @@
       <c r="F31" s="108"/>
       <c r="G31" s="74"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="81"/>
       <c r="C32" s="106"/>
       <c r="D32" s="107"/>
@@ -4351,7 +4351,7 @@
       <c r="F32" s="108"/>
       <c r="G32" s="74"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="81"/>
       <c r="C33" s="106"/>
       <c r="D33" s="107"/>
@@ -4359,7 +4359,7 @@
       <c r="F33" s="108"/>
       <c r="G33" s="74"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="81"/>
       <c r="C34" s="106"/>
       <c r="D34" s="107"/>
@@ -4367,7 +4367,7 @@
       <c r="F34" s="108"/>
       <c r="G34" s="74"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="81"/>
       <c r="C35" s="106"/>
       <c r="D35" s="107"/>
@@ -4375,7 +4375,7 @@
       <c r="F35" s="108"/>
       <c r="G35" s="74"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="81"/>
       <c r="C36" s="106"/>
       <c r="D36" s="107"/>
@@ -4383,7 +4383,7 @@
       <c r="F36" s="108"/>
       <c r="G36" s="74"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="81"/>
       <c r="C37" s="106"/>
       <c r="D37" s="107"/>
@@ -4391,7 +4391,7 @@
       <c r="F37" s="108"/>
       <c r="G37" s="74"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="81"/>
       <c r="C38" s="106"/>
       <c r="D38" s="107"/>
@@ -4399,7 +4399,7 @@
       <c r="F38" s="108"/>
       <c r="G38" s="74"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="81"/>
       <c r="C39" s="106"/>
       <c r="D39" s="107"/>
@@ -4407,7 +4407,7 @@
       <c r="F39" s="108"/>
       <c r="G39" s="74"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="81"/>
       <c r="C40" s="106"/>
       <c r="D40" s="107"/>
@@ -4415,7 +4415,7 @@
       <c r="F40" s="108"/>
       <c r="G40" s="74"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="81"/>
       <c r="C41" s="106"/>
       <c r="D41" s="107"/>
@@ -4423,7 +4423,7 @@
       <c r="F41" s="108"/>
       <c r="G41" s="74"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="81"/>
       <c r="C42" s="106"/>
       <c r="D42" s="107"/>
@@ -4431,7 +4431,7 @@
       <c r="F42" s="108"/>
       <c r="G42" s="74"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="81"/>
       <c r="C43" s="106"/>
       <c r="D43" s="107"/>
@@ -4439,7 +4439,7 @@
       <c r="F43" s="108"/>
       <c r="G43" s="74"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="81"/>
       <c r="C44" s="106"/>
       <c r="D44" s="107"/>
@@ -4447,7 +4447,7 @@
       <c r="F44" s="108"/>
       <c r="G44" s="74"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="81"/>
       <c r="C45" s="106"/>
       <c r="D45" s="107"/>
@@ -4455,7 +4455,7 @@
       <c r="F45" s="108"/>
       <c r="G45" s="74"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="81"/>
       <c r="C46" s="106"/>
       <c r="D46" s="107"/>
@@ -4463,7 +4463,7 @@
       <c r="F46" s="108"/>
       <c r="G46" s="74"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="81"/>
       <c r="C47" s="106"/>
       <c r="D47" s="107"/>
@@ -4471,7 +4471,7 @@
       <c r="F47" s="108"/>
       <c r="G47" s="74"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="81"/>
       <c r="C48" s="106"/>
       <c r="D48" s="107"/>
@@ -4479,7 +4479,7 @@
       <c r="F48" s="108"/>
       <c r="G48" s="74"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="81"/>
       <c r="C49" s="106"/>
       <c r="D49" s="107"/>
@@ -4487,7 +4487,7 @@
       <c r="F49" s="108"/>
       <c r="G49" s="74"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="81"/>
       <c r="C50" s="106"/>
       <c r="D50" s="107"/>
@@ -4495,7 +4495,7 @@
       <c r="F50" s="108"/>
       <c r="G50" s="74"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="81"/>
       <c r="C51" s="106"/>
       <c r="D51" s="107"/>
@@ -4503,7 +4503,7 @@
       <c r="F51" s="108"/>
       <c r="G51" s="74"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="81"/>
       <c r="C52" s="106"/>
       <c r="D52" s="107"/>
@@ -4511,7 +4511,7 @@
       <c r="F52" s="108"/>
       <c r="G52" s="74"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="81"/>
       <c r="C53" s="106"/>
       <c r="D53" s="107"/>
@@ -4519,7 +4519,7 @@
       <c r="F53" s="108"/>
       <c r="G53" s="74"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="81"/>
       <c r="C54" s="106"/>
       <c r="D54" s="107"/>
@@ -4527,7 +4527,7 @@
       <c r="F54" s="108"/>
       <c r="G54" s="74"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="81"/>
       <c r="C55" s="106"/>
       <c r="D55" s="107"/>
@@ -4535,7 +4535,7 @@
       <c r="F55" s="108"/>
       <c r="G55" s="74"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="81"/>
       <c r="C56" s="106"/>
       <c r="D56" s="107"/>
@@ -4543,7 +4543,7 @@
       <c r="F56" s="108"/>
       <c r="G56" s="74"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="81"/>
       <c r="C57" s="106"/>
       <c r="D57" s="107"/>
@@ -4551,7 +4551,7 @@
       <c r="F57" s="108"/>
       <c r="G57" s="74"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="81"/>
       <c r="C58" s="106"/>
       <c r="D58" s="107"/>
@@ -4559,7 +4559,7 @@
       <c r="F58" s="108"/>
       <c r="G58" s="74"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="81"/>
       <c r="C59" s="106"/>
       <c r="D59" s="107"/>
@@ -4567,7 +4567,7 @@
       <c r="F59" s="108"/>
       <c r="G59" s="74"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="81"/>
       <c r="C60" s="106"/>
       <c r="D60" s="107"/>
@@ -4575,7 +4575,7 @@
       <c r="F60" s="108"/>
       <c r="G60" s="74"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="81"/>
       <c r="C61" s="106"/>
       <c r="D61" s="107"/>
@@ -4583,7 +4583,7 @@
       <c r="F61" s="108"/>
       <c r="G61" s="74"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="81"/>
       <c r="C62" s="106"/>
       <c r="D62" s="107"/>
@@ -4591,7 +4591,7 @@
       <c r="F62" s="108"/>
       <c r="G62" s="74"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="81"/>
       <c r="C63" s="106"/>
       <c r="D63" s="107"/>
@@ -4599,7 +4599,7 @@
       <c r="F63" s="108"/>
       <c r="G63" s="74"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="81"/>
       <c r="C64" s="106"/>
       <c r="D64" s="107"/>
@@ -4607,7 +4607,7 @@
       <c r="F64" s="108"/>
       <c r="G64" s="74"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="81"/>
       <c r="C65" s="106"/>
       <c r="D65" s="107"/>
@@ -4615,7 +4615,7 @@
       <c r="F65" s="108"/>
       <c r="G65" s="74"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="81"/>
       <c r="C66" s="106"/>
       <c r="D66" s="107"/>
@@ -4623,7 +4623,7 @@
       <c r="F66" s="108"/>
       <c r="G66" s="74"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="81"/>
       <c r="C67" s="106"/>
       <c r="D67" s="107"/>
@@ -4631,7 +4631,7 @@
       <c r="F67" s="108"/>
       <c r="G67" s="74"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="81"/>
       <c r="C68" s="106"/>
       <c r="D68" s="107"/>
@@ -4639,7 +4639,7 @@
       <c r="F68" s="108"/>
       <c r="G68" s="74"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="81"/>
       <c r="C69" s="106"/>
       <c r="D69" s="107"/>
@@ -4647,7 +4647,7 @@
       <c r="F69" s="108"/>
       <c r="G69" s="74"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="81"/>
       <c r="C70" s="106"/>
       <c r="D70" s="107"/>
@@ -4655,7 +4655,7 @@
       <c r="F70" s="108"/>
       <c r="G70" s="74"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="81"/>
       <c r="C71" s="106"/>
       <c r="D71" s="107"/>
@@ -4663,7 +4663,7 @@
       <c r="F71" s="108"/>
       <c r="G71" s="74"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="81"/>
       <c r="C72" s="106"/>
       <c r="D72" s="107"/>
@@ -4671,7 +4671,7 @@
       <c r="F72" s="108"/>
       <c r="G72" s="74"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="81"/>
       <c r="C73" s="106"/>
       <c r="D73" s="107"/>
@@ -4679,7 +4679,7 @@
       <c r="F73" s="108"/>
       <c r="G73" s="74"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="81"/>
       <c r="C74" s="106"/>
       <c r="D74" s="107"/>
@@ -4687,7 +4687,7 @@
       <c r="F74" s="108"/>
       <c r="G74" s="74"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="81"/>
       <c r="C75" s="106"/>
       <c r="D75" s="107"/>
@@ -4695,7 +4695,7 @@
       <c r="F75" s="108"/>
       <c r="G75" s="74"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="81"/>
       <c r="C76" s="106"/>
       <c r="D76" s="107"/>
@@ -4703,7 +4703,7 @@
       <c r="F76" s="108"/>
       <c r="G76" s="74"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="81"/>
       <c r="C77" s="106"/>
       <c r="D77" s="107"/>
@@ -4711,7 +4711,7 @@
       <c r="F77" s="108"/>
       <c r="G77" s="74"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="81"/>
       <c r="C78" s="106"/>
       <c r="D78" s="107"/>
@@ -4719,7 +4719,7 @@
       <c r="F78" s="108"/>
       <c r="G78" s="74"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="81"/>
       <c r="C79" s="106"/>
       <c r="D79" s="107"/>
@@ -4727,7 +4727,7 @@
       <c r="F79" s="108"/>
       <c r="G79" s="74"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="81"/>
       <c r="C80" s="106"/>
       <c r="D80" s="107"/>
@@ -4735,7 +4735,7 @@
       <c r="F80" s="108"/>
       <c r="G80" s="74"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="81"/>
       <c r="C81" s="106"/>
       <c r="D81" s="107"/>
@@ -4743,7 +4743,7 @@
       <c r="F81" s="108"/>
       <c r="G81" s="74"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="81"/>
       <c r="C82" s="106"/>
       <c r="D82" s="107"/>
@@ -4751,7 +4751,7 @@
       <c r="F82" s="108"/>
       <c r="G82" s="74"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="81"/>
       <c r="C83" s="106"/>
       <c r="D83" s="107"/>
@@ -4759,7 +4759,7 @@
       <c r="F83" s="108"/>
       <c r="G83" s="74"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="81"/>
       <c r="C84" s="106"/>
       <c r="D84" s="107"/>
@@ -4767,7 +4767,7 @@
       <c r="F84" s="108"/>
       <c r="G84" s="74"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="81"/>
       <c r="C85" s="106"/>
       <c r="D85" s="107"/>
@@ -4775,7 +4775,7 @@
       <c r="F85" s="108"/>
       <c r="G85" s="74"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="81"/>
       <c r="C86" s="106"/>
       <c r="D86" s="107"/>
@@ -4783,7 +4783,7 @@
       <c r="F86" s="108"/>
       <c r="G86" s="74"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="81"/>
       <c r="C87" s="106"/>
       <c r="D87" s="107"/>
@@ -4791,7 +4791,7 @@
       <c r="F87" s="108"/>
       <c r="G87" s="74"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="81"/>
       <c r="C88" s="106"/>
       <c r="D88" s="107"/>
@@ -4799,7 +4799,7 @@
       <c r="F88" s="108"/>
       <c r="G88" s="74"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="81"/>
       <c r="C89" s="106"/>
       <c r="D89" s="107"/>
@@ -4807,7 +4807,7 @@
       <c r="F89" s="108"/>
       <c r="G89" s="74"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="81"/>
       <c r="C90" s="106"/>
       <c r="D90" s="107"/>
@@ -4815,7 +4815,7 @@
       <c r="F90" s="108"/>
       <c r="G90" s="74"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="81"/>
       <c r="C91" s="106"/>
       <c r="D91" s="107"/>
@@ -4823,7 +4823,7 @@
       <c r="F91" s="108"/>
       <c r="G91" s="74"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="81"/>
       <c r="C92" s="106"/>
       <c r="D92" s="107"/>
@@ -4831,7 +4831,7 @@
       <c r="F92" s="108"/>
       <c r="G92" s="74"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="81"/>
       <c r="C93" s="106"/>
       <c r="D93" s="107"/>
@@ -4839,7 +4839,7 @@
       <c r="F93" s="108"/>
       <c r="G93" s="74"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="81"/>
       <c r="C94" s="106"/>
       <c r="D94" s="107"/>
@@ -4847,7 +4847,7 @@
       <c r="F94" s="108"/>
       <c r="G94" s="74"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="81"/>
       <c r="C95" s="106"/>
       <c r="D95" s="107"/>
@@ -4855,7 +4855,7 @@
       <c r="F95" s="108"/>
       <c r="G95" s="74"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="81"/>
       <c r="C96" s="106"/>
       <c r="D96" s="107"/>
@@ -4863,7 +4863,7 @@
       <c r="F96" s="108"/>
       <c r="G96" s="74"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="81"/>
       <c r="C97" s="106"/>
       <c r="D97" s="107"/>
@@ -4871,7 +4871,7 @@
       <c r="F97" s="108"/>
       <c r="G97" s="74"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="81"/>
       <c r="C98" s="106"/>
       <c r="D98" s="107"/>
@@ -4879,7 +4879,7 @@
       <c r="F98" s="108"/>
       <c r="G98" s="74"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="81"/>
       <c r="C99" s="106"/>
       <c r="D99" s="107"/>
@@ -4887,7 +4887,7 @@
       <c r="F99" s="108"/>
       <c r="G99" s="74"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="81"/>
       <c r="C100" s="106"/>
       <c r="D100" s="107"/>
@@ -4895,7 +4895,7 @@
       <c r="F100" s="108"/>
       <c r="G100" s="74"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="81"/>
       <c r="C101" s="106"/>
       <c r="D101" s="107"/>
@@ -4903,7 +4903,7 @@
       <c r="F101" s="108"/>
       <c r="G101" s="74"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="81"/>
       <c r="C102" s="106"/>
       <c r="D102" s="107"/>
@@ -4911,7 +4911,7 @@
       <c r="F102" s="108"/>
       <c r="G102" s="74"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="81"/>
       <c r="C103" s="106"/>
       <c r="D103" s="107"/>
@@ -4919,7 +4919,7 @@
       <c r="F103" s="108"/>
       <c r="G103" s="74"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="81"/>
       <c r="C104" s="106"/>
       <c r="D104" s="107"/>
@@ -4927,7 +4927,7 @@
       <c r="F104" s="108"/>
       <c r="G104" s="74"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="81"/>
       <c r="C105" s="106"/>
       <c r="D105" s="107"/>
@@ -4935,7 +4935,7 @@
       <c r="F105" s="108"/>
       <c r="G105" s="74"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="81"/>
       <c r="C106" s="106"/>
       <c r="D106" s="107"/>
@@ -4943,7 +4943,7 @@
       <c r="F106" s="108"/>
       <c r="G106" s="74"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="81"/>
       <c r="C107" s="106"/>
       <c r="D107" s="107"/>
@@ -4951,7 +4951,7 @@
       <c r="F107" s="108"/>
       <c r="G107" s="74"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="81"/>
       <c r="C108" s="106"/>
       <c r="D108" s="107"/>
@@ -4959,7 +4959,7 @@
       <c r="F108" s="108"/>
       <c r="G108" s="74"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="81"/>
       <c r="C109" s="106"/>
       <c r="D109" s="107"/>
@@ -4967,7 +4967,7 @@
       <c r="F109" s="108"/>
       <c r="G109" s="74"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="81"/>
       <c r="C110" s="106"/>
       <c r="D110" s="107"/>
@@ -4975,7 +4975,7 @@
       <c r="F110" s="108"/>
       <c r="G110" s="74"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="81"/>
       <c r="C111" s="106"/>
       <c r="D111" s="107"/>
@@ -4983,7 +4983,7 @@
       <c r="F111" s="108"/>
       <c r="G111" s="74"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="81"/>
       <c r="C112" s="106"/>
       <c r="D112" s="107"/>
@@ -4991,7 +4991,7 @@
       <c r="F112" s="108"/>
       <c r="G112" s="74"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="81"/>
       <c r="C113" s="106"/>
       <c r="D113" s="107"/>
@@ -4999,7 +4999,7 @@
       <c r="F113" s="108"/>
       <c r="G113" s="74"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="81"/>
       <c r="C114" s="106"/>
       <c r="D114" s="107"/>
@@ -5007,7 +5007,7 @@
       <c r="F114" s="108"/>
       <c r="G114" s="74"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="81"/>
       <c r="C115" s="106"/>
       <c r="D115" s="107"/>
@@ -5015,7 +5015,7 @@
       <c r="F115" s="108"/>
       <c r="G115" s="74"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="81"/>
       <c r="C116" s="106"/>
       <c r="D116" s="107"/>
@@ -5023,7 +5023,7 @@
       <c r="F116" s="108"/>
       <c r="G116" s="74"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="81"/>
       <c r="C117" s="106"/>
       <c r="D117" s="107"/>
@@ -5031,7 +5031,7 @@
       <c r="F117" s="108"/>
       <c r="G117" s="74"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="81"/>
       <c r="C118" s="106"/>
       <c r="D118" s="107"/>
@@ -5039,7 +5039,7 @@
       <c r="F118" s="108"/>
       <c r="G118" s="74"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="81"/>
       <c r="C119" s="106"/>
       <c r="D119" s="107"/>
@@ -5047,7 +5047,7 @@
       <c r="F119" s="108"/>
       <c r="G119" s="74"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="81"/>
       <c r="C120" s="106"/>
       <c r="D120" s="107"/>
@@ -5055,7 +5055,7 @@
       <c r="F120" s="108"/>
       <c r="G120" s="74"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="81"/>
       <c r="C121" s="106"/>
       <c r="D121" s="107"/>
@@ -5063,7 +5063,7 @@
       <c r="F121" s="108"/>
       <c r="G121" s="74"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="81"/>
       <c r="C122" s="106"/>
       <c r="D122" s="107"/>
@@ -5071,7 +5071,7 @@
       <c r="F122" s="108"/>
       <c r="G122" s="74"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="81"/>
       <c r="C123" s="106"/>
       <c r="D123" s="107"/>
@@ -5079,7 +5079,7 @@
       <c r="F123" s="108"/>
       <c r="G123" s="74"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="81"/>
       <c r="C124" s="106"/>
       <c r="D124" s="107"/>
@@ -5087,7 +5087,7 @@
       <c r="F124" s="108"/>
       <c r="G124" s="74"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="81"/>
       <c r="C125" s="106"/>
       <c r="D125" s="107"/>
@@ -5095,7 +5095,7 @@
       <c r="F125" s="108"/>
       <c r="G125" s="74"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="81"/>
       <c r="C126" s="106"/>
       <c r="D126" s="107"/>
@@ -5103,7 +5103,7 @@
       <c r="F126" s="108"/>
       <c r="G126" s="74"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="81"/>
       <c r="C127" s="106"/>
       <c r="D127" s="107"/>
@@ -5111,7 +5111,7 @@
       <c r="F127" s="108"/>
       <c r="G127" s="74"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="81"/>
       <c r="C128" s="106"/>
       <c r="D128" s="107"/>
@@ -5119,7 +5119,7 @@
       <c r="F128" s="108"/>
       <c r="G128" s="74"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="81"/>
       <c r="C129" s="106"/>
       <c r="D129" s="107"/>
@@ -5127,7 +5127,7 @@
       <c r="F129" s="108"/>
       <c r="G129" s="74"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="81"/>
       <c r="C130" s="106"/>
       <c r="D130" s="107"/>
@@ -5135,7 +5135,7 @@
       <c r="F130" s="108"/>
       <c r="G130" s="74"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="81"/>
       <c r="C131" s="106"/>
       <c r="D131" s="107"/>
@@ -5143,7 +5143,7 @@
       <c r="F131" s="108"/>
       <c r="G131" s="74"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="81"/>
       <c r="C132" s="106"/>
       <c r="D132" s="107"/>
@@ -5151,7 +5151,7 @@
       <c r="F132" s="108"/>
       <c r="G132" s="74"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="81"/>
       <c r="C133" s="106"/>
       <c r="D133" s="107"/>
@@ -5159,7 +5159,7 @@
       <c r="F133" s="108"/>
       <c r="G133" s="74"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="81"/>
       <c r="C134" s="106"/>
       <c r="D134" s="107"/>
@@ -5167,7 +5167,7 @@
       <c r="F134" s="108"/>
       <c r="G134" s="74"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="81"/>
       <c r="C135" s="106"/>
       <c r="D135" s="107"/>
@@ -5175,7 +5175,7 @@
       <c r="F135" s="108"/>
       <c r="G135" s="74"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="81"/>
       <c r="C136" s="106"/>
       <c r="D136" s="107"/>
@@ -5183,7 +5183,7 @@
       <c r="F136" s="108"/>
       <c r="G136" s="74"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="81"/>
       <c r="C137" s="106"/>
       <c r="D137" s="107"/>
@@ -5191,7 +5191,7 @@
       <c r="F137" s="108"/>
       <c r="G137" s="74"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="81"/>
       <c r="C138" s="106"/>
       <c r="D138" s="107"/>
@@ -5199,7 +5199,7 @@
       <c r="F138" s="108"/>
       <c r="G138" s="74"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="81"/>
       <c r="C139" s="106"/>
       <c r="D139" s="107"/>
@@ -5207,7 +5207,7 @@
       <c r="F139" s="108"/>
       <c r="G139" s="74"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="81"/>
       <c r="C140" s="106"/>
       <c r="D140" s="107"/>
@@ -5215,7 +5215,7 @@
       <c r="F140" s="108"/>
       <c r="G140" s="74"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="81"/>
       <c r="C141" s="106"/>
       <c r="D141" s="107"/>
@@ -5223,7 +5223,7 @@
       <c r="F141" s="108"/>
       <c r="G141" s="74"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="81"/>
       <c r="C142" s="106"/>
       <c r="D142" s="107"/>
@@ -5231,7 +5231,7 @@
       <c r="F142" s="108"/>
       <c r="G142" s="74"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="81"/>
       <c r="C143" s="106"/>
       <c r="D143" s="107"/>
@@ -5239,7 +5239,7 @@
       <c r="F143" s="108"/>
       <c r="G143" s="74"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="81"/>
       <c r="C144" s="106"/>
       <c r="D144" s="107"/>
@@ -5247,7 +5247,7 @@
       <c r="F144" s="108"/>
       <c r="G144" s="74"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="81"/>
       <c r="C145" s="106"/>
       <c r="D145" s="107"/>
@@ -5255,7 +5255,7 @@
       <c r="F145" s="108"/>
       <c r="G145" s="74"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="81"/>
       <c r="C146" s="106"/>
       <c r="D146" s="107"/>
@@ -5263,7 +5263,7 @@
       <c r="F146" s="108"/>
       <c r="G146" s="74"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="81"/>
       <c r="C147" s="106"/>
       <c r="D147" s="107"/>
@@ -5271,7 +5271,7 @@
       <c r="F147" s="108"/>
       <c r="G147" s="74"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="81"/>
       <c r="C148" s="106"/>
       <c r="D148" s="107"/>
@@ -5279,7 +5279,7 @@
       <c r="F148" s="108"/>
       <c r="G148" s="74"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="81"/>
       <c r="C149" s="106"/>
       <c r="D149" s="107"/>
@@ -5287,7 +5287,7 @@
       <c r="F149" s="108"/>
       <c r="G149" s="74"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="81"/>
       <c r="C150" s="106"/>
       <c r="D150" s="107"/>
@@ -5295,7 +5295,7 @@
       <c r="F150" s="108"/>
       <c r="G150" s="74"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="81"/>
       <c r="C151" s="106"/>
       <c r="D151" s="107"/>
@@ -5303,7 +5303,7 @@
       <c r="F151" s="108"/>
       <c r="G151" s="74"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="81"/>
       <c r="C152" s="106"/>
       <c r="D152" s="107"/>
@@ -5311,7 +5311,7 @@
       <c r="F152" s="108"/>
       <c r="G152" s="74"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="81"/>
       <c r="C153" s="106"/>
       <c r="D153" s="107"/>
@@ -5319,7 +5319,7 @@
       <c r="F153" s="108"/>
       <c r="G153" s="74"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="81"/>
       <c r="C154" s="106"/>
       <c r="D154" s="107"/>
@@ -5327,7 +5327,7 @@
       <c r="F154" s="108"/>
       <c r="G154" s="74"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="81"/>
       <c r="C155" s="106"/>
       <c r="D155" s="107"/>
@@ -5335,7 +5335,7 @@
       <c r="F155" s="108"/>
       <c r="G155" s="74"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="81"/>
       <c r="C156" s="106"/>
       <c r="D156" s="107"/>
@@ -5343,7 +5343,7 @@
       <c r="F156" s="108"/>
       <c r="G156" s="74"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="81"/>
       <c r="C157" s="106"/>
       <c r="D157" s="107"/>
@@ -5351,7 +5351,7 @@
       <c r="F157" s="108"/>
       <c r="G157" s="74"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="81"/>
       <c r="C158" s="106"/>
       <c r="D158" s="107"/>
@@ -5359,7 +5359,7 @@
       <c r="F158" s="108"/>
       <c r="G158" s="74"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="81"/>
       <c r="C159" s="106"/>
       <c r="D159" s="107"/>
@@ -5367,7 +5367,7 @@
       <c r="F159" s="108"/>
       <c r="G159" s="74"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="81"/>
       <c r="C160" s="106"/>
       <c r="D160" s="107"/>
@@ -5375,7 +5375,7 @@
       <c r="F160" s="108"/>
       <c r="G160" s="74"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="81"/>
       <c r="C161" s="106"/>
       <c r="D161" s="107"/>
@@ -5383,7 +5383,7 @@
       <c r="F161" s="108"/>
       <c r="G161" s="74"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="81"/>
       <c r="C162" s="106"/>
       <c r="D162" s="107"/>
@@ -5391,7 +5391,7 @@
       <c r="F162" s="108"/>
       <c r="G162" s="74"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="81"/>
       <c r="C163" s="106"/>
       <c r="D163" s="107"/>
@@ -5399,7 +5399,7 @@
       <c r="F163" s="108"/>
       <c r="G163" s="74"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="81"/>
       <c r="C164" s="106"/>
       <c r="D164" s="107"/>
@@ -5407,7 +5407,7 @@
       <c r="F164" s="108"/>
       <c r="G164" s="74"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="81"/>
       <c r="C165" s="106"/>
       <c r="D165" s="107"/>
@@ -5415,7 +5415,7 @@
       <c r="F165" s="108"/>
       <c r="G165" s="74"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="81"/>
       <c r="C166" s="106"/>
       <c r="D166" s="107"/>
@@ -5423,7 +5423,7 @@
       <c r="F166" s="108"/>
       <c r="G166" s="74"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="81"/>
       <c r="C167" s="106"/>
       <c r="D167" s="107"/>
@@ -5431,7 +5431,7 @@
       <c r="F167" s="108"/>
       <c r="G167" s="74"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="81"/>
       <c r="C168" s="106"/>
       <c r="D168" s="107"/>
@@ -5439,7 +5439,7 @@
       <c r="F168" s="108"/>
       <c r="G168" s="74"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="81"/>
       <c r="C169" s="106"/>
       <c r="D169" s="107"/>
@@ -5447,7 +5447,7 @@
       <c r="F169" s="108"/>
       <c r="G169" s="74"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="81"/>
       <c r="C170" s="106"/>
       <c r="D170" s="107"/>
@@ -5455,7 +5455,7 @@
       <c r="F170" s="108"/>
       <c r="G170" s="74"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="81"/>
       <c r="C171" s="106"/>
       <c r="D171" s="107"/>
@@ -5463,7 +5463,7 @@
       <c r="F171" s="108"/>
       <c r="G171" s="74"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="81"/>
       <c r="C172" s="106"/>
       <c r="D172" s="107"/>
@@ -5471,7 +5471,7 @@
       <c r="F172" s="108"/>
       <c r="G172" s="74"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="81"/>
       <c r="C173" s="106"/>
       <c r="D173" s="107"/>
@@ -5479,7 +5479,7 @@
       <c r="F173" s="108"/>
       <c r="G173" s="74"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="81"/>
       <c r="C174" s="106"/>
       <c r="D174" s="107"/>
@@ -5487,7 +5487,7 @@
       <c r="F174" s="108"/>
       <c r="G174" s="74"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="81"/>
       <c r="C175" s="106"/>
       <c r="D175" s="107"/>
@@ -5495,7 +5495,7 @@
       <c r="F175" s="108"/>
       <c r="G175" s="74"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="81"/>
       <c r="C176" s="106"/>
       <c r="D176" s="107"/>
@@ -5503,7 +5503,7 @@
       <c r="F176" s="108"/>
       <c r="G176" s="74"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="81"/>
       <c r="C177" s="106"/>
       <c r="D177" s="107"/>
@@ -5511,7 +5511,7 @@
       <c r="F177" s="108"/>
       <c r="G177" s="74"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="81"/>
       <c r="C178" s="106"/>
       <c r="D178" s="107"/>
@@ -5519,7 +5519,7 @@
       <c r="F178" s="108"/>
       <c r="G178" s="74"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="81"/>
       <c r="C179" s="106"/>
       <c r="D179" s="107"/>
@@ -5527,7 +5527,7 @@
       <c r="F179" s="108"/>
       <c r="G179" s="74"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="81"/>
       <c r="C180" s="106"/>
       <c r="D180" s="107"/>
@@ -5535,7 +5535,7 @@
       <c r="F180" s="108"/>
       <c r="G180" s="74"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="81"/>
       <c r="C181" s="106"/>
       <c r="D181" s="107"/>
@@ -5543,7 +5543,7 @@
       <c r="F181" s="108"/>
       <c r="G181" s="74"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="81"/>
       <c r="C182" s="106"/>
       <c r="D182" s="107"/>
@@ -5551,7 +5551,7 @@
       <c r="F182" s="108"/>
       <c r="G182" s="74"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="81"/>
       <c r="C183" s="106"/>
       <c r="D183" s="107"/>
@@ -5559,7 +5559,7 @@
       <c r="F183" s="108"/>
       <c r="G183" s="74"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="81"/>
       <c r="C184" s="106"/>
       <c r="D184" s="107"/>
@@ -5567,7 +5567,7 @@
       <c r="F184" s="108"/>
       <c r="G184" s="74"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="81"/>
       <c r="C185" s="106"/>
       <c r="D185" s="107"/>
@@ -5575,7 +5575,7 @@
       <c r="F185" s="108"/>
       <c r="G185" s="74"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="81"/>
       <c r="C186" s="106"/>
       <c r="D186" s="107"/>
@@ -5583,7 +5583,7 @@
       <c r="F186" s="108"/>
       <c r="G186" s="74"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="81"/>
       <c r="C187" s="106"/>
       <c r="D187" s="107"/>
@@ -5591,7 +5591,7 @@
       <c r="F187" s="108"/>
       <c r="G187" s="74"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="81"/>
       <c r="C188" s="106"/>
       <c r="D188" s="107"/>
@@ -5599,7 +5599,7 @@
       <c r="F188" s="108"/>
       <c r="G188" s="74"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="81"/>
       <c r="C189" s="106"/>
       <c r="D189" s="107"/>
@@ -5607,7 +5607,7 @@
       <c r="F189" s="108"/>
       <c r="G189" s="74"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="81"/>
       <c r="C190" s="106"/>
       <c r="D190" s="107"/>
@@ -5615,7 +5615,7 @@
       <c r="F190" s="108"/>
       <c r="G190" s="74"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="81"/>
       <c r="C191" s="106"/>
       <c r="D191" s="107"/>
@@ -5623,7 +5623,7 @@
       <c r="F191" s="108"/>
       <c r="G191" s="74"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="81"/>
       <c r="C192" s="106"/>
       <c r="D192" s="107"/>
@@ -5631,7 +5631,7 @@
       <c r="F192" s="108"/>
       <c r="G192" s="74"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="81"/>
       <c r="C193" s="106"/>
       <c r="D193" s="107"/>
@@ -5639,7 +5639,7 @@
       <c r="F193" s="108"/>
       <c r="G193" s="74"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="81"/>
       <c r="C194" s="106"/>
       <c r="D194" s="107"/>
@@ -5647,7 +5647,7 @@
       <c r="F194" s="108"/>
       <c r="G194" s="74"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="81"/>
       <c r="C195" s="106"/>
       <c r="D195" s="107"/>
@@ -5655,7 +5655,7 @@
       <c r="F195" s="108"/>
       <c r="G195" s="74"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="81"/>
       <c r="C196" s="106"/>
       <c r="D196" s="107"/>
@@ -5663,7 +5663,7 @@
       <c r="F196" s="108"/>
       <c r="G196" s="74"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="81"/>
       <c r="C197" s="106"/>
       <c r="D197" s="107"/>
@@ -5671,7 +5671,7 @@
       <c r="F197" s="108"/>
       <c r="G197" s="74"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="81"/>
       <c r="C198" s="106"/>
       <c r="D198" s="107"/>
@@ -5679,7 +5679,7 @@
       <c r="F198" s="108"/>
       <c r="G198" s="74"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="81"/>
       <c r="C199" s="106"/>
       <c r="D199" s="107"/>
@@ -5687,7 +5687,7 @@
       <c r="F199" s="108"/>
       <c r="G199" s="74"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="81"/>
       <c r="C200" s="106"/>
       <c r="D200" s="107"/>
@@ -5695,7 +5695,7 @@
       <c r="F200" s="108"/>
       <c r="G200" s="74"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="81"/>
       <c r="C201" s="106"/>
       <c r="D201" s="107"/>
@@ -5703,7 +5703,7 @@
       <c r="F201" s="108"/>
       <c r="G201" s="74"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="81"/>
       <c r="C202" s="106"/>
       <c r="D202" s="107"/>
@@ -5711,7 +5711,7 @@
       <c r="F202" s="108"/>
       <c r="G202" s="74"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="81"/>
       <c r="C203" s="106"/>
       <c r="D203" s="107"/>
@@ -5719,7 +5719,7 @@
       <c r="F203" s="108"/>
       <c r="G203" s="74"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="81"/>
       <c r="C204" s="106"/>
       <c r="D204" s="107"/>
@@ -5727,7 +5727,7 @@
       <c r="F204" s="108"/>
       <c r="G204" s="74"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="81"/>
       <c r="C205" s="106"/>
       <c r="D205" s="107"/>
@@ -5735,7 +5735,7 @@
       <c r="F205" s="108"/>
       <c r="G205" s="74"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="81"/>
       <c r="C206" s="106"/>
       <c r="D206" s="107"/>
@@ -5743,7 +5743,7 @@
       <c r="F206" s="108"/>
       <c r="G206" s="74"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="81"/>
       <c r="C207" s="106"/>
       <c r="D207" s="107"/>
@@ -5751,7 +5751,7 @@
       <c r="F207" s="108"/>
       <c r="G207" s="74"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="81"/>
       <c r="C208" s="106"/>
       <c r="D208" s="107"/>
@@ -5759,7 +5759,7 @@
       <c r="F208" s="108"/>
       <c r="G208" s="74"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="81"/>
       <c r="C209" s="106"/>
       <c r="D209" s="107"/>
@@ -5767,7 +5767,7 @@
       <c r="F209" s="108"/>
       <c r="G209" s="74"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="81"/>
       <c r="C210" s="106"/>
       <c r="D210" s="107"/>
@@ -5775,7 +5775,7 @@
       <c r="F210" s="108"/>
       <c r="G210" s="74"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="81"/>
       <c r="C211" s="106"/>
       <c r="D211" s="107"/>
@@ -5783,7 +5783,7 @@
       <c r="F211" s="108"/>
       <c r="G211" s="74"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="81"/>
       <c r="C212" s="106"/>
       <c r="D212" s="107"/>
@@ -5791,7 +5791,7 @@
       <c r="F212" s="108"/>
       <c r="G212" s="74"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="81"/>
       <c r="C213" s="106"/>
       <c r="D213" s="107"/>
@@ -5799,7 +5799,7 @@
       <c r="F213" s="108"/>
       <c r="G213" s="74"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="81"/>
       <c r="C214" s="106"/>
       <c r="D214" s="107"/>
@@ -5881,28 +5881,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:ALB24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="12" customWidth="1"/>
-    <col min="7" max="11" width="24.5546875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="33.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="12" customWidth="1"/>
+    <col min="7" max="11" width="24.5703125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" style="12" customWidth="1"/>
     <col min="17" max="17" width="32" style="12" customWidth="1"/>
     <col min="18" max="18" width="73" style="12" customWidth="1"/>
-    <col min="19" max="990" width="9.33203125" style="12"/>
+    <col min="19" max="990" width="9.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="14" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="14" customFormat="1" ht="39.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5919,64 +5921,64 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="X1" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -5987,66 +5989,66 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="9"/>
       <c r="S2" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -6058,70 +6060,70 @@
         <v>00100004</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -6133,145 +6135,145 @@
         <v>00100008</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0010000C</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X5" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -6283,70 +6285,70 @@
         <v>00100010</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -6358,70 +6360,70 @@
         <v>00100014</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -6433,145 +6435,145 @@
         <v>00100018</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X8" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>0010001C</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X9" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>3</v>
       </c>
@@ -6583,70 +6585,70 @@
         <v>00100020</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V10" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -6658,70 +6660,70 @@
         <v>00100024</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -6733,145 +6735,145 @@
         <v>00100028</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V12" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>3</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0010002C</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>3</v>
       </c>
@@ -6883,70 +6885,70 @@
         <v>00100030</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X14" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>3</v>
       </c>
@@ -6958,70 +6960,70 @@
         <v>00100034</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X15" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>3</v>
       </c>
@@ -7033,145 +7035,145 @@
         <v>00100038</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V16" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>3</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0010003C</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>3</v>
       </c>
@@ -7183,70 +7185,70 @@
         <v>00100040</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>3</v>
       </c>
@@ -7258,70 +7260,70 @@
         <v>00100044</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X19" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>3</v>
       </c>
@@ -7333,145 +7335,145 @@
         <v>00100048</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>3</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>0010004C</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>3</v>
       </c>
@@ -7483,70 +7485,70 @@
         <v>00100050</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B24" s="21"/>
     </row>
   </sheetData>
@@ -7590,75 +7592,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="27" customWidth="1"/>
-    <col min="12" max="13" width="12.6640625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="27" customWidth="1"/>
-    <col min="15" max="17" width="12.6640625" style="27" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="27" customWidth="1"/>
-    <col min="19" max="20" width="15.6640625" style="27" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="27" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="27" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="27" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="27" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="27" customWidth="1"/>
+    <col min="15" max="17" width="12.7109375" style="27" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="27" customWidth="1"/>
+    <col min="19" max="20" width="15.7109375" style="27" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="27" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="27" customWidth="1"/>
     <col min="23" max="23" width="17" style="27" customWidth="1"/>
-    <col min="24" max="24" width="14.5546875" style="26" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="26" customWidth="1"/>
     <col min="25" max="25" width="16" style="26" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" style="26" customWidth="1"/>
-    <col min="27" max="27" width="15.44140625" style="26" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" style="26" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" style="26" customWidth="1"/>
     <col min="28" max="28" width="24" style="26" customWidth="1"/>
-    <col min="29" max="29" width="32.44140625" style="26" customWidth="1"/>
-    <col min="30" max="1024" width="9.33203125" style="26"/>
+    <col min="29" max="29" width="32.42578125" style="26" customWidth="1"/>
+    <col min="30" max="1024" width="9.28515625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="134" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124" t="s">
+      <c r="C2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="124" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="124" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-    </row>
-    <row r="4" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+    </row>
+    <row r="4" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="30"/>
       <c r="C4" s="29"/>
@@ -7667,7 +7669,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
       <c r="I4" s="34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
@@ -7684,10 +7686,10 @@
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
     </row>
-    <row r="6" spans="1:23" s="38" customFormat="1" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -7705,10 +7707,10 @@
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
     </row>
-    <row r="7" spans="1:23" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
@@ -7727,7 +7729,7 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="42"/>
     </row>
-    <row r="8" spans="1:23" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="43"/>
       <c r="C8" s="41"/>
@@ -7747,103 +7749,103 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="45"/>
     </row>
-    <row r="9" spans="1:23" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="45"/>
+    </row>
+    <row r="10" spans="1:23" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="45"/>
+    </row>
+    <row r="11" spans="1:23" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="45"/>
-    </row>
-    <row r="10" spans="1:23" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="119" t="s">
+      <c r="C11" s="125"/>
+      <c r="D11" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="45"/>
+    </row>
+    <row r="12" spans="1:23" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="45"/>
-    </row>
-    <row r="11" spans="1:23" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="119" t="s">
+      <c r="C12" s="125"/>
+      <c r="D12" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="45"/>
-    </row>
-    <row r="12" spans="1:23" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
       <c r="R12" s="45"/>
     </row>
-    <row r="13" spans="1:23" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
@@ -7863,119 +7865,119 @@
       <c r="Q13" s="51"/>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="1:23" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="127"/>
+      <c r="D14" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="121"/>
-      <c r="D14" s="53" t="s">
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="122" t="s">
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="54"/>
+    </row>
+    <row r="15" spans="1:23" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="54"/>
-    </row>
-    <row r="15" spans="1:23" s="38" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="125" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="125"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="56">
         <v>0</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="E15" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="42"/>
+    </row>
+    <row r="16" spans="1:23" s="38" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="126"/>
-      <c r="G15" s="127" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" s="127"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" spans="1:23" s="38" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="125"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="56">
         <v>1</v>
       </c>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="42"/>
+    </row>
+    <row r="17" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="130"/>
+      <c r="D17" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127" t="s">
+      <c r="E17" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="42"/>
-    </row>
-    <row r="17" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
       <c r="L17" s="58"/>
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
@@ -7985,57 +7987,57 @@
       <c r="R17" s="60"/>
       <c r="S17" s="42"/>
     </row>
-    <row r="18" spans="1:19" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47"/>
-      <c r="B18" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="125"/>
+      <c r="B18" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="131"/>
       <c r="D18" s="61">
         <v>8</v>
       </c>
-      <c r="E18" s="126" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
+      <c r="E18" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
       <c r="S18" s="42"/>
     </row>
-    <row r="19" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="128"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
       <c r="L19" s="58"/>
       <c r="M19" s="59"/>
       <c r="N19" s="59"/>
@@ -8045,57 +8047,57 @@
       <c r="R19" s="60"/>
       <c r="S19" s="42"/>
     </row>
-    <row r="20" spans="1:19" s="38" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="38" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
-      <c r="B20" s="125" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="125"/>
+      <c r="B20" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="131"/>
       <c r="D20" s="61">
         <v>12</v>
       </c>
-      <c r="E20" s="126" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="126"/>
-      <c r="G20" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
+      <c r="E20" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47"/>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="128"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
       <c r="L21" s="58"/>
       <c r="M21" s="59"/>
       <c r="N21" s="59"/>
@@ -8105,243 +8107,243 @@
       <c r="R21" s="60"/>
       <c r="S21" s="42"/>
     </row>
-    <row r="22" spans="1:19" s="38" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="38" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47"/>
-      <c r="B22" s="125" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="125"/>
+      <c r="B22" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="131"/>
       <c r="D22" s="61">
         <v>17</v>
       </c>
-      <c r="E22" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="126"/>
-      <c r="G22" s="127" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
+      <c r="E22" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="121"/>
+      <c r="G22" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
       <c r="S22" s="42"/>
     </row>
-    <row r="23" spans="1:19" s="38" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="38" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47"/>
-      <c r="B23" s="125" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="125"/>
+      <c r="B23" s="131" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="131"/>
       <c r="D23" s="61">
         <v>18</v>
       </c>
-      <c r="E23" s="126" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="127" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="127"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
+      <c r="E23" s="121" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
       <c r="S23" s="42"/>
     </row>
-    <row r="24" spans="1:19" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="38" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47"/>
-      <c r="B24" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="125"/>
+      <c r="B24" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="131"/>
       <c r="D24" s="61">
         <v>19</v>
       </c>
-      <c r="E24" s="126" t="s">
+      <c r="E24" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="42"/>
+    </row>
+    <row r="25" spans="1:19" s="38" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="126"/>
-      <c r="G24" s="127" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="42"/>
-    </row>
-    <row r="25" spans="1:19" s="38" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="125"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="61">
         <v>20</v>
       </c>
-      <c r="E25" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="126"/>
-      <c r="G25" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127" t="s">
+      <c r="E25" s="121" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
       <c r="S25" s="42"/>
     </row>
-    <row r="26" spans="1:19" s="38" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="38" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="47"/>
-      <c r="B26" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="125"/>
+      <c r="B26" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="131"/>
       <c r="D26" s="61">
         <v>21</v>
       </c>
-      <c r="E26" s="126" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
+      <c r="E26" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
       <c r="S26" s="42"/>
     </row>
-    <row r="27" spans="1:19" s="38" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="38" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47"/>
-      <c r="B27" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="125"/>
+      <c r="B27" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="131"/>
       <c r="D27" s="61">
         <v>22</v>
       </c>
-      <c r="E27" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="126"/>
-      <c r="G27" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="127"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M27" s="127"/>
-      <c r="N27" s="127"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
+      <c r="E27" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
       <c r="S27" s="42"/>
     </row>
-    <row r="28" spans="1:19" s="38" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="38" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="125" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="125"/>
+      <c r="B28" s="131" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="131"/>
       <c r="D28" s="61">
         <v>23</v>
       </c>
-      <c r="E28" s="126" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M28" s="127"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
+      <c r="E28" s="121" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
       <c r="S28" s="42"/>
     </row>
-    <row r="29" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="47"/>
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="128"/>
+      <c r="C29" s="130"/>
       <c r="D29" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
       <c r="L29" s="58"/>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
@@ -8351,57 +8353,57 @@
       <c r="R29" s="60"/>
       <c r="S29" s="42"/>
     </row>
-    <row r="30" spans="1:19" s="38" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="38" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47"/>
-      <c r="B30" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="125"/>
+      <c r="B30" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="131"/>
       <c r="D30" s="61">
         <v>25</v>
       </c>
-      <c r="E30" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M30" s="127"/>
-      <c r="N30" s="127"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
+      <c r="E30" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
       <c r="S30" s="42"/>
     </row>
-    <row r="31" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="47"/>
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="128"/>
+      <c r="C31" s="130"/>
       <c r="D31" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
       <c r="L31" s="58"/>
       <c r="M31" s="59"/>
       <c r="N31" s="59"/>
@@ -8411,66 +8413,66 @@
       <c r="R31" s="60"/>
       <c r="S31" s="42"/>
     </row>
-    <row r="32" spans="1:19" s="38" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="38" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="47"/>
-      <c r="B32" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="125"/>
+      <c r="B32" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="131"/>
       <c r="D32" s="61">
         <v>27</v>
       </c>
-      <c r="E32" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
-      <c r="R32" s="127"/>
+      <c r="E32" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
       <c r="S32" s="42"/>
     </row>
-    <row r="33" spans="1:32" s="38" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" s="38" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="47"/>
-      <c r="B33" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="125"/>
+      <c r="B33" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="131"/>
       <c r="D33" s="61">
         <v>28</v>
       </c>
-      <c r="E33" s="126" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127" t="s">
-        <v>169</v>
-      </c>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="127"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
+      <c r="E33" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
       <c r="S33" s="42"/>
       <c r="T33" s="62"/>
       <c r="U33" s="62"/>
@@ -8483,35 +8485,35 @@
       <c r="AB33" s="62"/>
       <c r="AC33" s="62"/>
     </row>
-    <row r="34" spans="1:32" s="38" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="38" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47"/>
-      <c r="B34" s="125" t="s">
+      <c r="B34" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="131"/>
+      <c r="D34" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="132" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="132"/>
+      <c r="G34" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="130" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="130"/>
-      <c r="G34" s="127" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
-      <c r="L34" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="M34" s="127"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127"/>
-      <c r="P34" s="127"/>
-      <c r="Q34" s="127"/>
-      <c r="R34" s="127"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
       <c r="S34" s="64"/>
       <c r="T34" s="62"/>
       <c r="U34" s="62"/>
@@ -8525,26 +8527,26 @@
       <c r="AC34" s="62"/>
       <c r="AD34" s="45"/>
     </row>
-    <row r="35" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="47"/>
-      <c r="B35" s="128" t="s">
+      <c r="B35" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="128"/>
+      <c r="C35" s="130"/>
       <c r="D35" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
       <c r="L35" s="58"/>
       <c r="M35" s="59"/>
       <c r="N35" s="59"/>
@@ -8554,7 +8556,7 @@
       <c r="R35" s="60"/>
       <c r="S35" s="42"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="S36" s="64"/>
       <c r="T36" s="62"/>
       <c r="U36" s="62"/>
@@ -8568,7 +8570,7 @@
       <c r="AC36" s="62"/>
       <c r="AD36" s="65"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="S37" s="64"/>
       <c r="T37" s="62"/>
       <c r="U37" s="62"/>
@@ -8584,10 +8586,10 @@
       <c r="AE37" s="62"/>
       <c r="AF37" s="62"/>
     </row>
-    <row r="38" spans="1:32" s="38" customFormat="1" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
       <c r="B38" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -8619,10 +8621,10 @@
       <c r="AE38" s="62"/>
       <c r="AF38" s="62"/>
     </row>
-    <row r="39" spans="1:32" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
@@ -8641,7 +8643,7 @@
       <c r="Q39" s="41"/>
       <c r="R39" s="42"/>
     </row>
-    <row r="40" spans="1:32" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="43"/>
       <c r="C40" s="41"/>
@@ -8661,103 +8663,103 @@
       <c r="Q40" s="44"/>
       <c r="R40" s="45"/>
     </row>
-    <row r="41" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="125"/>
+      <c r="D41" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="126"/>
+      <c r="N41" s="126"/>
+      <c r="O41" s="126"/>
+      <c r="P41" s="126"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="45"/>
+    </row>
+    <row r="42" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="46"/>
+      <c r="B42" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="125"/>
+      <c r="D42" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="45"/>
-    </row>
-    <row r="42" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="119" t="s">
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="126"/>
+      <c r="O42" s="126"/>
+      <c r="P42" s="126"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="45"/>
+    </row>
+    <row r="43" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="46"/>
+      <c r="B43" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="125"/>
+      <c r="D43" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="120" t="s">
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="126"/>
+      <c r="O43" s="126"/>
+      <c r="P43" s="126"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="45"/>
+    </row>
+    <row r="44" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="46"/>
+      <c r="B44" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="45"/>
-    </row>
-    <row r="43" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="45"/>
-    </row>
-    <row r="44" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="120"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="126"/>
+      <c r="M44" s="126"/>
+      <c r="N44" s="126"/>
+      <c r="O44" s="126"/>
+      <c r="P44" s="126"/>
+      <c r="Q44" s="126"/>
       <c r="R44" s="45"/>
     </row>
-    <row r="45" spans="1:32" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="47"/>
       <c r="B45" s="48"/>
       <c r="C45" s="49"/>
@@ -8777,57 +8779,57 @@
       <c r="Q45" s="51"/>
       <c r="R45" s="42"/>
     </row>
-    <row r="46" spans="1:32" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="52"/>
-      <c r="B46" s="121" t="s">
+      <c r="B46" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="127"/>
+      <c r="D46" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="121"/>
-      <c r="D46" s="53" t="s">
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E46" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="128"/>
+      <c r="P46" s="128"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="128"/>
       <c r="S46" s="54"/>
     </row>
-    <row r="47" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="131"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
       <c r="L47" s="58"/>
       <c r="M47" s="59"/>
       <c r="N47" s="59"/>
@@ -8837,41 +8839,41 @@
       <c r="R47" s="60"/>
       <c r="S47" s="45"/>
     </row>
-    <row r="48" spans="1:32" s="38" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" s="38" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="47"/>
-      <c r="B48" s="132" t="s">
+      <c r="B48" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="120"/>
+      <c r="D48" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="121"/>
+      <c r="G48" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="68" t="s">
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="126" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="126"/>
-      <c r="G48" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="127"/>
-      <c r="K48" s="127"/>
-      <c r="L48" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="M48" s="127"/>
-      <c r="N48" s="127"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="127"/>
-      <c r="Q48" s="127"/>
-      <c r="R48" s="127"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="122"/>
+      <c r="O48" s="122"/>
+      <c r="P48" s="122"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="122"/>
       <c r="S48" s="42"/>
     </row>
-    <row r="50" spans="1:19" s="38" customFormat="1" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A50" s="35"/>
       <c r="B50" s="36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -8889,10 +8891,10 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
     </row>
-    <row r="51" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
@@ -8911,7 +8913,7 @@
       <c r="Q51" s="41"/>
       <c r="R51" s="42"/>
     </row>
-    <row r="52" spans="1:19" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="43"/>
       <c r="C52" s="41"/>
@@ -8931,103 +8933,103 @@
       <c r="Q52" s="44"/>
       <c r="R52" s="45"/>
     </row>
-    <row r="53" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
-      <c r="B53" s="119" t="s">
+      <c r="B53" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="125"/>
+      <c r="D53" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="126"/>
+      <c r="K53" s="126"/>
+      <c r="L53" s="126"/>
+      <c r="M53" s="126"/>
+      <c r="N53" s="126"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="126"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="45"/>
+    </row>
+    <row r="54" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="46"/>
+      <c r="B54" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="125"/>
+      <c r="D54" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="45"/>
-    </row>
-    <row r="54" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="119" t="s">
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="126"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="45"/>
+    </row>
+    <row r="55" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="125"/>
+      <c r="D55" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="119"/>
-      <c r="D54" s="120" t="s">
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="126"/>
+      <c r="L55" s="126"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="126"/>
+      <c r="P55" s="126"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="45"/>
+    </row>
+    <row r="56" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="46"/>
+      <c r="B56" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="120"/>
-      <c r="R54" s="45"/>
-    </row>
-    <row r="55" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="45"/>
-    </row>
-    <row r="56" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="119"/>
-      <c r="D56" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="120"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="126" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="126"/>
+      <c r="Q56" s="126"/>
       <c r="R56" s="45"/>
     </row>
-    <row r="57" spans="1:19" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="47"/>
       <c r="B57" s="48"/>
       <c r="C57" s="49"/>
@@ -9047,88 +9049,88 @@
       <c r="Q57" s="51"/>
       <c r="R57" s="42"/>
     </row>
-    <row r="58" spans="1:19" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="52"/>
-      <c r="B58" s="121" t="s">
+      <c r="B58" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="127"/>
+      <c r="D58" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="128"/>
+      <c r="G58" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="121"/>
-      <c r="D58" s="53" t="s">
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="128"/>
+      <c r="L58" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="M58" s="122"/>
-      <c r="N58" s="122"/>
-      <c r="O58" s="122"/>
-      <c r="P58" s="122"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="122"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="128"/>
+      <c r="Q58" s="128"/>
+      <c r="R58" s="128"/>
       <c r="S58" s="54"/>
     </row>
-    <row r="59" spans="1:19" s="38" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="38" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="47"/>
-      <c r="B59" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="132"/>
+      <c r="B59" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="120"/>
       <c r="D59" s="68">
         <v>0</v>
       </c>
-      <c r="E59" s="126" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="126"/>
-      <c r="G59" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="127"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="127"/>
-      <c r="K59" s="127"/>
-      <c r="L59" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="M59" s="127"/>
-      <c r="N59" s="127"/>
-      <c r="O59" s="127"/>
-      <c r="P59" s="127"/>
-      <c r="Q59" s="127"/>
-      <c r="R59" s="127"/>
+      <c r="E59" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="121"/>
+      <c r="G59" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="M59" s="122"/>
+      <c r="N59" s="122"/>
+      <c r="O59" s="122"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="122"/>
+      <c r="R59" s="122"/>
       <c r="S59" s="42"/>
     </row>
-    <row r="60" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
-      <c r="B60" s="131" t="s">
+      <c r="B60" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="131"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="129"/>
-      <c r="G60" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
+      <c r="F60" s="124"/>
+      <c r="G60" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
+      <c r="J60" s="124"/>
+      <c r="K60" s="124"/>
       <c r="L60" s="58"/>
       <c r="M60" s="59"/>
       <c r="N60" s="59"/>
@@ -9138,10 +9140,10 @@
       <c r="R60" s="60"/>
       <c r="S60" s="45"/>
     </row>
-    <row r="62" spans="1:19" s="38" customFormat="1" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="B62" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -9159,10 +9161,10 @@
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
     </row>
-    <row r="63" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C63" s="41"/>
       <c r="D63" s="41"/>
@@ -9181,7 +9183,7 @@
       <c r="Q63" s="41"/>
       <c r="R63" s="42"/>
     </row>
-    <row r="64" spans="1:19" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="43"/>
       <c r="C64" s="41"/>
@@ -9201,103 +9203,103 @@
       <c r="Q64" s="44"/>
       <c r="R64" s="45"/>
     </row>
-    <row r="65" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="46"/>
-      <c r="B65" s="119" t="s">
+      <c r="B65" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="125"/>
+      <c r="D65" s="126" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
+      <c r="M65" s="126"/>
+      <c r="N65" s="126"/>
+      <c r="O65" s="126"/>
+      <c r="P65" s="126"/>
+      <c r="Q65" s="126"/>
+      <c r="R65" s="45"/>
+    </row>
+    <row r="66" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="125"/>
+      <c r="D66" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="119"/>
-      <c r="D65" s="120" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="120"/>
-      <c r="H65" s="120"/>
-      <c r="I65" s="120"/>
-      <c r="J65" s="120"/>
-      <c r="K65" s="120"/>
-      <c r="L65" s="120"/>
-      <c r="M65" s="120"/>
-      <c r="N65" s="120"/>
-      <c r="O65" s="120"/>
-      <c r="P65" s="120"/>
-      <c r="Q65" s="120"/>
-      <c r="R65" s="45"/>
-    </row>
-    <row r="66" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="B66" s="119" t="s">
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="126"/>
+      <c r="N66" s="126"/>
+      <c r="O66" s="126"/>
+      <c r="P66" s="126"/>
+      <c r="Q66" s="126"/>
+      <c r="R66" s="45"/>
+    </row>
+    <row r="67" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="46"/>
+      <c r="B67" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="125"/>
+      <c r="D67" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="119"/>
-      <c r="D66" s="120" t="s">
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
+      <c r="M67" s="126"/>
+      <c r="N67" s="126"/>
+      <c r="O67" s="126"/>
+      <c r="P67" s="126"/>
+      <c r="Q67" s="126"/>
+      <c r="R67" s="45"/>
+    </row>
+    <row r="68" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="120"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="120"/>
-      <c r="L66" s="120"/>
-      <c r="M66" s="120"/>
-      <c r="N66" s="120"/>
-      <c r="O66" s="120"/>
-      <c r="P66" s="120"/>
-      <c r="Q66" s="120"/>
-      <c r="R66" s="45"/>
-    </row>
-    <row r="67" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
-      <c r="B67" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="119"/>
-      <c r="D67" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="120"/>
-      <c r="I67" s="120"/>
-      <c r="J67" s="120"/>
-      <c r="K67" s="120"/>
-      <c r="L67" s="120"/>
-      <c r="M67" s="120"/>
-      <c r="N67" s="120"/>
-      <c r="O67" s="120"/>
-      <c r="P67" s="120"/>
-      <c r="Q67" s="120"/>
-      <c r="R67" s="45"/>
-    </row>
-    <row r="68" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="B68" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="119"/>
-      <c r="D68" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="120"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="120"/>
-      <c r="M68" s="120"/>
-      <c r="N68" s="120"/>
-      <c r="O68" s="120"/>
-      <c r="P68" s="120"/>
-      <c r="Q68" s="120"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
+      <c r="M68" s="126"/>
+      <c r="N68" s="126"/>
+      <c r="O68" s="126"/>
+      <c r="P68" s="126"/>
+      <c r="Q68" s="126"/>
       <c r="R68" s="45"/>
     </row>
-    <row r="69" spans="1:19" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="47"/>
       <c r="B69" s="48"/>
       <c r="C69" s="49"/>
@@ -9317,72 +9319,72 @@
       <c r="Q69" s="51"/>
       <c r="R69" s="42"/>
     </row>
-    <row r="70" spans="1:19" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="52"/>
-      <c r="B70" s="121" t="s">
+      <c r="B70" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="127"/>
+      <c r="D70" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="121"/>
-      <c r="D70" s="53" t="s">
+      <c r="H70" s="128"/>
+      <c r="I70" s="128"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="128"/>
+      <c r="L70" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" s="122"/>
-      <c r="G70" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="H70" s="122"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="122"/>
-      <c r="L70" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="M70" s="122"/>
-      <c r="N70" s="122"/>
-      <c r="O70" s="122"/>
-      <c r="P70" s="122"/>
-      <c r="Q70" s="122"/>
-      <c r="R70" s="122"/>
+      <c r="M70" s="128"/>
+      <c r="N70" s="128"/>
+      <c r="O70" s="128"/>
+      <c r="P70" s="128"/>
+      <c r="Q70" s="128"/>
+      <c r="R70" s="128"/>
       <c r="S70" s="54"/>
     </row>
-    <row r="71" spans="1:19" s="38" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="38" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="47"/>
-      <c r="B71" s="132" t="s">
+      <c r="B71" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="120"/>
+      <c r="D71" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="129"/>
+      <c r="G71" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" s="122"/>
+      <c r="I71" s="122"/>
+      <c r="J71" s="122"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="132"/>
-      <c r="D71" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E71" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" s="133"/>
-      <c r="G71" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="H71" s="127"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="127"/>
-      <c r="K71" s="127"/>
-      <c r="L71" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="M71" s="127"/>
-      <c r="N71" s="127"/>
-      <c r="O71" s="127"/>
-      <c r="P71" s="127"/>
-      <c r="Q71" s="127"/>
-      <c r="R71" s="127"/>
+      <c r="M71" s="122"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="122"/>
+      <c r="P71" s="122"/>
+      <c r="Q71" s="122"/>
+      <c r="R71" s="122"/>
       <c r="S71" s="42"/>
     </row>
-    <row r="73" spans="1:19" s="38" customFormat="1" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A73" s="35"/>
       <c r="B73" s="36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -9400,10 +9402,10 @@
       <c r="P73" s="37"/>
       <c r="Q73" s="37"/>
     </row>
-    <row r="74" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C74" s="41"/>
       <c r="D74" s="41"/>
@@ -9422,7 +9424,7 @@
       <c r="Q74" s="41"/>
       <c r="R74" s="42"/>
     </row>
-    <row r="75" spans="1:19" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="39"/>
       <c r="B75" s="43"/>
       <c r="C75" s="41"/>
@@ -9442,103 +9444,103 @@
       <c r="Q75" s="44"/>
       <c r="R75" s="45"/>
     </row>
-    <row r="76" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="46"/>
-      <c r="B76" s="119" t="s">
+      <c r="B76" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="125"/>
+      <c r="D76" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="126"/>
+      <c r="N76" s="126"/>
+      <c r="O76" s="126"/>
+      <c r="P76" s="126"/>
+      <c r="Q76" s="126"/>
+      <c r="R76" s="45"/>
+    </row>
+    <row r="77" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="46"/>
+      <c r="B77" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="125"/>
+      <c r="D77" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="119"/>
-      <c r="D76" s="120" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="120"/>
-      <c r="F76" s="120"/>
-      <c r="G76" s="120"/>
-      <c r="H76" s="120"/>
-      <c r="I76" s="120"/>
-      <c r="J76" s="120"/>
-      <c r="K76" s="120"/>
-      <c r="L76" s="120"/>
-      <c r="M76" s="120"/>
-      <c r="N76" s="120"/>
-      <c r="O76" s="120"/>
-      <c r="P76" s="120"/>
-      <c r="Q76" s="120"/>
-      <c r="R76" s="45"/>
-    </row>
-    <row r="77" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="119" t="s">
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="126"/>
+      <c r="N77" s="126"/>
+      <c r="O77" s="126"/>
+      <c r="P77" s="126"/>
+      <c r="Q77" s="126"/>
+      <c r="R77" s="45"/>
+    </row>
+    <row r="78" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="46"/>
+      <c r="B78" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="125"/>
+      <c r="D78" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="119"/>
-      <c r="D77" s="120" t="s">
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
+      <c r="G78" s="126"/>
+      <c r="H78" s="126"/>
+      <c r="I78" s="126"/>
+      <c r="J78" s="126"/>
+      <c r="K78" s="126"/>
+      <c r="L78" s="126"/>
+      <c r="M78" s="126"/>
+      <c r="N78" s="126"/>
+      <c r="O78" s="126"/>
+      <c r="P78" s="126"/>
+      <c r="Q78" s="126"/>
+      <c r="R78" s="45"/>
+    </row>
+    <row r="79" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="46"/>
+      <c r="B79" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="120"/>
-      <c r="F77" s="120"/>
-      <c r="G77" s="120"/>
-      <c r="H77" s="120"/>
-      <c r="I77" s="120"/>
-      <c r="J77" s="120"/>
-      <c r="K77" s="120"/>
-      <c r="L77" s="120"/>
-      <c r="M77" s="120"/>
-      <c r="N77" s="120"/>
-      <c r="O77" s="120"/>
-      <c r="P77" s="120"/>
-      <c r="Q77" s="120"/>
-      <c r="R77" s="45"/>
-    </row>
-    <row r="78" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="119"/>
-      <c r="D78" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="120"/>
-      <c r="F78" s="120"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="120"/>
-      <c r="K78" s="120"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="120"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="120"/>
-      <c r="P78" s="120"/>
-      <c r="Q78" s="120"/>
-      <c r="R78" s="45"/>
-    </row>
-    <row r="79" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="119"/>
-      <c r="D79" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="E79" s="120"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="120"/>
-      <c r="H79" s="120"/>
-      <c r="I79" s="120"/>
-      <c r="J79" s="120"/>
-      <c r="K79" s="120"/>
-      <c r="L79" s="120"/>
-      <c r="M79" s="120"/>
-      <c r="N79" s="120"/>
-      <c r="O79" s="120"/>
-      <c r="P79" s="120"/>
-      <c r="Q79" s="120"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
+      <c r="G79" s="126"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="126"/>
+      <c r="J79" s="126"/>
+      <c r="K79" s="126"/>
+      <c r="L79" s="126"/>
+      <c r="M79" s="126"/>
+      <c r="N79" s="126"/>
+      <c r="O79" s="126"/>
+      <c r="P79" s="126"/>
+      <c r="Q79" s="126"/>
       <c r="R79" s="45"/>
     </row>
-    <row r="80" spans="1:19" s="38" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="47"/>
       <c r="B80" s="48"/>
       <c r="C80" s="49"/>
@@ -9558,88 +9560,88 @@
       <c r="Q80" s="51"/>
       <c r="R80" s="42"/>
     </row>
-    <row r="81" spans="1:19" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="55" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="52"/>
-      <c r="B81" s="121" t="s">
+      <c r="B81" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="127"/>
+      <c r="D81" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="128"/>
+      <c r="G81" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="121"/>
-      <c r="D81" s="53" t="s">
+      <c r="H81" s="128"/>
+      <c r="I81" s="128"/>
+      <c r="J81" s="128"/>
+      <c r="K81" s="128"/>
+      <c r="L81" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="F81" s="122"/>
-      <c r="G81" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="H81" s="122"/>
-      <c r="I81" s="122"/>
-      <c r="J81" s="122"/>
-      <c r="K81" s="122"/>
-      <c r="L81" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="M81" s="122"/>
-      <c r="N81" s="122"/>
-      <c r="O81" s="122"/>
-      <c r="P81" s="122"/>
-      <c r="Q81" s="122"/>
-      <c r="R81" s="122"/>
+      <c r="M81" s="128"/>
+      <c r="N81" s="128"/>
+      <c r="O81" s="128"/>
+      <c r="P81" s="128"/>
+      <c r="Q81" s="128"/>
+      <c r="R81" s="128"/>
       <c r="S81" s="54"/>
     </row>
-    <row r="82" spans="1:19" s="38" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="38" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="47"/>
-      <c r="B82" s="132" t="s">
+      <c r="B82" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="120"/>
+      <c r="D82" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="121"/>
+      <c r="G82" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="132"/>
-      <c r="D82" s="69" t="s">
+      <c r="H82" s="122"/>
+      <c r="I82" s="122"/>
+      <c r="J82" s="122"/>
+      <c r="K82" s="122"/>
+      <c r="L82" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="E82" s="126" t="s">
+      <c r="M82" s="122"/>
+      <c r="N82" s="122"/>
+      <c r="O82" s="122"/>
+      <c r="P82" s="122"/>
+      <c r="Q82" s="122"/>
+      <c r="R82" s="122"/>
+      <c r="S82" s="42"/>
+    </row>
+    <row r="83" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="66"/>
+      <c r="B83" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="123"/>
+      <c r="D83" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="F82" s="126"/>
-      <c r="G82" s="127" t="s">
-        <v>148</v>
-      </c>
-      <c r="H82" s="127"/>
-      <c r="I82" s="127"/>
-      <c r="J82" s="127"/>
-      <c r="K82" s="127"/>
-      <c r="L82" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="M82" s="127"/>
-      <c r="N82" s="127"/>
-      <c r="O82" s="127"/>
-      <c r="P82" s="127"/>
-      <c r="Q82" s="127"/>
-      <c r="R82" s="127"/>
-      <c r="S82" s="42"/>
-    </row>
-    <row r="83" spans="1:19" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
-      <c r="B83" s="131" t="s">
+      <c r="E83" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="E83" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="129"/>
-      <c r="G83" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="H83" s="129"/>
-      <c r="I83" s="129"/>
-      <c r="J83" s="129"/>
-      <c r="K83" s="129"/>
+      <c r="F83" s="124"/>
+      <c r="G83" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="124"/>
+      <c r="I83" s="124"/>
+      <c r="J83" s="124"/>
+      <c r="K83" s="124"/>
       <c r="L83" s="58"/>
       <c r="M83" s="59"/>
       <c r="N83" s="59"/>
@@ -9651,6 +9653,155 @@
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:Q12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:Q10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:R24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:R20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:R23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:R26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:R28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:R30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:R32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:Q41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:Q42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:Q44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="L46:R46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="L48:R48"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:Q53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:Q54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:Q55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:Q56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="L58:R58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:K59"/>
+    <mergeCell ref="L59:R59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:Q65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:Q66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:Q67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:Q68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="L70:R70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="L71:R71"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="G82:K82"/>
@@ -9670,155 +9821,6 @@
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="G81:K81"/>
     <mergeCell ref="L81:R81"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:Q68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="L70:R70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="L71:R71"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:Q65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:Q66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:Q67"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:Q56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:K58"/>
-    <mergeCell ref="L58:R58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:K59"/>
-    <mergeCell ref="L59:R59"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="L48:R48"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:Q53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:Q54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:Q55"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:Q44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="L46:R46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:R32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:R33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:R34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:R30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:R26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:R28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:R23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:R24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:R20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:Q11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:Q12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
